--- a/source/waste_cate_capita.xlsx
+++ b/source/waste_cate_capita.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krant\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krant\Desktop\ironhack_262\final_project\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33814DA-C9D6-44E1-A81B-848EED9BABFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748B7389-27D3-4E11-AE2D-E785D35D7ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24840" yWindow="4035" windowWidth="21600" windowHeight="11100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 2" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="98">
   <si>
     <t>Final consumption expenditure of households by consumption purpose (COICOP 3 digit) [NAMA_10_CO3_P3__custom_10910026]</t>
   </si>
@@ -311,6 +311,12 @@
   </si>
   <si>
     <t>Data extracted on 19/04/2024 15:50:55 from [ESTAT]</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Kosovo</t>
   </si>
 </sst>
 </file>
@@ -321,7 +327,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.##########"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -359,6 +365,13 @@
       <color indexed="12"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -418,10 +431,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -478,19 +492,23 @@
     <xf numFmtId="165" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{2DFD00FE-E66E-4E06-801E-E595BFE19F26}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -853,11 +871,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FCC3C4-208F-49E4-926C-843152EC19D3}">
   <dimension ref="A1:AC56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="10" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H26" sqref="H26"/>
+      <selection pane="bottomRight" activeCell="A49" sqref="A49:A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -936,88 +954,88 @@
       <c r="A8" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="22" t="s">
+      <c r="C8" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="F8" s="22" t="s">
+      <c r="E8" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="H8" s="22" t="s">
+      <c r="G8" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="J8" s="22" t="s">
+      <c r="I8" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="L8" s="22" t="s">
+      <c r="K8" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="L8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="N8" s="22" t="s">
+      <c r="M8" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="N8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="O8" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="P8" s="22" t="s">
+      <c r="O8" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="P8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="Q8" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="R8" s="22" t="s">
+      <c r="Q8" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="R8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="S8" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="T8" s="22" t="s">
+      <c r="S8" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="T8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="U8" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="V8" s="22" t="s">
+      <c r="U8" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="V8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="W8" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="X8" s="22" t="s">
+      <c r="W8" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="X8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="Y8" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z8" s="22" t="s">
+      <c r="Y8" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="AA8" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB8" s="22" t="s">
+      <c r="AA8" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="AC8" s="22" t="s">
+      <c r="AC8" s="20" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1025,88 +1043,88 @@
       <c r="A9" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="23" t="s">
+      <c r="C9" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="F9" s="23" t="s">
+      <c r="E9" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="H9" s="23" t="s">
+      <c r="G9" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="J9" s="23" t="s">
+      <c r="I9" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="L9" s="23" t="s">
+      <c r="K9" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="L9" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="M9" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="N9" s="23" t="s">
+      <c r="M9" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="N9" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="O9" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="P9" s="23" t="s">
+      <c r="O9" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="P9" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="Q9" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="R9" s="23" t="s">
+      <c r="Q9" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="R9" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="S9" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="T9" s="23" t="s">
+      <c r="S9" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="T9" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="U9" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="V9" s="23" t="s">
+      <c r="U9" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="V9" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="W9" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="X9" s="23" t="s">
+      <c r="W9" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="X9" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="Y9" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z9" s="23" t="s">
+      <c r="Y9" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z9" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="AA9" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB9" s="23" t="s">
+      <c r="AA9" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB9" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AC9" s="23" t="s">
+      <c r="AC9" s="21" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4583,7 +4601,7 @@
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="B49" s="14">
         <v>403225.2</v>
@@ -4672,7 +4690,7 @@
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>87</v>
@@ -4795,11 +4813,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="AB9:AC9"/>
     <mergeCell ref="B8:AC8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:E9"/>
@@ -4810,6 +4823,11 @@
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4847,22 +4865,22 @@
       <c r="A8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
@@ -5423,11 +5441,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AC56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="10" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomRight" activeCell="A49" sqref="A49:A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5506,88 +5524,88 @@
       <c r="A8" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="22" t="s">
+      <c r="C8" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="F8" s="22" t="s">
+      <c r="E8" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="H8" s="22" t="s">
+      <c r="G8" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="J8" s="22" t="s">
+      <c r="I8" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="L8" s="22" t="s">
+      <c r="K8" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="L8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="N8" s="22" t="s">
+      <c r="M8" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="N8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="O8" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="P8" s="22" t="s">
+      <c r="O8" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="P8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="Q8" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="R8" s="22" t="s">
+      <c r="Q8" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="R8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="S8" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="T8" s="22" t="s">
+      <c r="S8" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="T8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="U8" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="V8" s="22" t="s">
+      <c r="U8" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="V8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="W8" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="X8" s="22" t="s">
+      <c r="W8" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="X8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="Y8" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z8" s="22" t="s">
+      <c r="Y8" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="AA8" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB8" s="22" t="s">
+      <c r="AA8" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="AC8" s="22" t="s">
+      <c r="AC8" s="20" t="s">
         <v>83</v>
       </c>
     </row>
@@ -5595,88 +5613,88 @@
       <c r="A9" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="23" t="s">
+      <c r="C9" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="F9" s="23" t="s">
+      <c r="E9" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="H9" s="23" t="s">
+      <c r="G9" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="J9" s="23" t="s">
+      <c r="I9" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="L9" s="23" t="s">
+      <c r="K9" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="L9" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="M9" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="N9" s="23" t="s">
+      <c r="M9" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="N9" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="O9" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="P9" s="23" t="s">
+      <c r="O9" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="P9" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="Q9" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="R9" s="23" t="s">
+      <c r="Q9" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="R9" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="S9" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="T9" s="23" t="s">
+      <c r="S9" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="T9" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="U9" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="V9" s="23" t="s">
+      <c r="U9" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="V9" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="W9" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="X9" s="23" t="s">
+      <c r="W9" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="X9" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="Y9" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z9" s="23" t="s">
+      <c r="Y9" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z9" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="AA9" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB9" s="23" t="s">
+      <c r="AA9" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB9" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AC9" s="23" t="s">
+      <c r="AC9" s="21" t="s">
         <v>83</v>
       </c>
     </row>
@@ -9152,8 +9170,8 @@
       </c>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" t="s">
-        <v>77</v>
+      <c r="A49" s="24" t="s">
+        <v>96</v>
       </c>
       <c r="B49" s="14">
         <v>365247.8</v>
@@ -9241,8 +9259,8 @@
       </c>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="s">
-        <v>78</v>
+      <c r="A50" s="24" t="s">
+        <v>97</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>87</v>
